--- a/Code/Results/Cases/Case_3_73/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_73/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.409701384950665</v>
+        <v>1.595171257880907</v>
       </c>
       <c r="C2">
-        <v>0.512052683314181</v>
+        <v>0.1997189457370325</v>
       </c>
       <c r="D2">
-        <v>0.08488465954584967</v>
+        <v>0.1640302068917023</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6400154593753271</v>
+        <v>1.427060993182451</v>
       </c>
       <c r="G2">
-        <v>0.0008042312236397401</v>
+        <v>0.002465091533515773</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2770383854429745</v>
+        <v>0.835027060010944</v>
       </c>
       <c r="J2">
-        <v>0.05377041188947906</v>
+        <v>0.1679191627495049</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3883675922037497</v>
+        <v>0.4220987939883969</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.528304220226318</v>
+        <v>3.483305048085299</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.966925207044994</v>
+        <v>1.458061052358687</v>
       </c>
       <c r="C3">
-        <v>0.4558068864278368</v>
+        <v>0.1810641220763216</v>
       </c>
       <c r="D3">
-        <v>0.07914008580504373</v>
+        <v>0.163052254729827</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6256861987152575</v>
+        <v>1.437753617176959</v>
       </c>
       <c r="G3">
-        <v>0.0008086165099988801</v>
+        <v>0.002468004936192551</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2920594914672918</v>
+        <v>0.8482709281717433</v>
       </c>
       <c r="J3">
-        <v>0.05675663501720862</v>
+        <v>0.1699010648156127</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.346506569766035</v>
+        <v>0.4117511432170602</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.5061719190209</v>
+        <v>3.516362382676448</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.695418325912499</v>
+        <v>1.373851724902124</v>
       </c>
       <c r="C4">
-        <v>0.4212651796233615</v>
+        <v>0.1695529483934308</v>
       </c>
       <c r="D4">
-        <v>0.07566875484810254</v>
+        <v>0.1624951693002075</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6185809278865833</v>
+        <v>1.445229784162997</v>
       </c>
       <c r="G4">
-        <v>0.0008113970993258553</v>
+        <v>0.002469889584334751</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3023504129711512</v>
+        <v>0.8569684122360322</v>
       </c>
       <c r="J4">
-        <v>0.05869563809943656</v>
+        <v>0.1711883932998424</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3210284613974324</v>
+        <v>0.4055297817785544</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.497350480811747</v>
+        <v>3.539096566826629</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.584830697046129</v>
+        <v>1.339532264368984</v>
       </c>
       <c r="C5">
-        <v>0.4071833542750483</v>
+        <v>0.1648480123128877</v>
       </c>
       <c r="D5">
-        <v>0.07426750164206197</v>
+        <v>0.16227911237943</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6160907600838854</v>
+        <v>1.44850530764149</v>
       </c>
       <c r="G5">
-        <v>0.0008125527703483554</v>
+        <v>0.002470681757301968</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3068016615709261</v>
+        <v>0.8606548052805323</v>
       </c>
       <c r="J5">
-        <v>0.05951176266647451</v>
+        <v>0.1717307120527201</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3106972066885305</v>
+        <v>0.4030279691878604</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.494894976713923</v>
+        <v>3.548973061694937</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.566469918006533</v>
+        <v>1.333833403282199</v>
       </c>
       <c r="C6">
-        <v>0.4048446121916243</v>
+        <v>0.1640659222935028</v>
       </c>
       <c r="D6">
-        <v>0.07403561065776643</v>
+        <v>0.1622438997601918</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6157011701668296</v>
+        <v>1.449063028890954</v>
       </c>
       <c r="G6">
-        <v>0.0008127460432820957</v>
+        <v>0.002470814758287025</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3075560380673608</v>
+        <v>0.8612755059535253</v>
       </c>
       <c r="J6">
-        <v>0.05964883209852356</v>
+        <v>0.1718218343568552</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3089846600187087</v>
+        <v>0.402614571340564</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.494554366766053</v>
+        <v>3.550649998675851</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.693926732109105</v>
+        <v>1.373388891619754</v>
       </c>
       <c r="C7">
-        <v>0.4210752959480146</v>
+        <v>0.1694895524206856</v>
       </c>
       <c r="D7">
-        <v>0.07564980393529197</v>
+        <v>0.1624922110355982</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6185457298616299</v>
+        <v>1.445273032267643</v>
       </c>
       <c r="G7">
-        <v>0.0008114125932773111</v>
+        <v>0.002469900170034108</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3024094150345249</v>
+        <v>0.8570175530759379</v>
       </c>
       <c r="J7">
-        <v>0.0587065402190996</v>
+        <v>0.1711956354300241</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3208889295335666</v>
+        <v>0.4054959057633027</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.497312828628367</v>
+        <v>3.539227287048561</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.256934507322057</v>
+        <v>1.547901806644745</v>
       </c>
       <c r="C8">
-        <v>0.4926578846564382</v>
+        <v>0.1932987758278841</v>
       </c>
       <c r="D8">
-        <v>0.08289189810944464</v>
+        <v>0.1636840354335476</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6347107430893644</v>
+        <v>1.430558691328805</v>
       </c>
       <c r="G8">
-        <v>0.0008057252694067577</v>
+        <v>0.002466076233277835</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.281989284552143</v>
+        <v>0.83947604615609</v>
       </c>
       <c r="J8">
-        <v>0.05477783660749935</v>
+        <v>0.1685879111479522</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3738840132543402</v>
+        <v>0.4185036237979602</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.519646590141946</v>
+        <v>3.49419706683716</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.365683717024126</v>
+        <v>1.889852739295748</v>
       </c>
       <c r="C9">
-        <v>0.6331887523467685</v>
+        <v>0.239524987628414</v>
       </c>
       <c r="D9">
-        <v>0.09757148269548566</v>
+        <v>0.1663633795384172</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6808190055716921</v>
+        <v>1.408937147651827</v>
       </c>
       <c r="G9">
-        <v>0.0007952501757050309</v>
+        <v>0.002459334408473368</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2509374751087137</v>
+        <v>0.8095721666738775</v>
       </c>
       <c r="J9">
-        <v>0.04793625121701073</v>
+        <v>0.1640324636751069</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4798471560786197</v>
+        <v>0.4450523290965265</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.604123030733376</v>
+        <v>3.425258083846984</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.185979545551277</v>
+        <v>2.140832052283429</v>
       </c>
       <c r="C10">
-        <v>0.7368588244865464</v>
+        <v>0.2731932537968476</v>
       </c>
       <c r="D10">
-        <v>0.1087004382231811</v>
+        <v>0.1685381015435254</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7249236877359237</v>
+        <v>1.397470834325233</v>
       </c>
       <c r="G10">
-        <v>0.0007879367952208972</v>
+        <v>0.002454838011865277</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2343692047343779</v>
+        <v>0.7903503664421905</v>
       </c>
       <c r="J10">
-        <v>0.0434732822193542</v>
+        <v>0.1610250686445207</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5593314317928133</v>
+        <v>0.4651838954137872</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.69520646884402</v>
+        <v>3.386457225768538</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.561082834638796</v>
+        <v>2.254937450459977</v>
       </c>
       <c r="C11">
-        <v>0.7841927470023506</v>
+        <v>0.2884437591832523</v>
       </c>
       <c r="D11">
-        <v>0.1138506223875595</v>
+        <v>0.1695717321124377</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7475547998195538</v>
+        <v>1.393216176383319</v>
       </c>
       <c r="G11">
-        <v>0.0007846856204005159</v>
+        <v>0.002452890698961648</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2283703818806053</v>
+        <v>0.7822044726774173</v>
       </c>
       <c r="J11">
-        <v>0.04157425391480807</v>
+        <v>0.1597304599549201</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5959396356712432</v>
+        <v>0.4744766859455751</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.743954401251472</v>
+        <v>3.371387920683986</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.703465900227684</v>
+        <v>2.298134709530359</v>
       </c>
       <c r="C12">
-        <v>0.8021489810094806</v>
+        <v>0.2942090779358466</v>
       </c>
       <c r="D12">
-        <v>0.1158145747694732</v>
+        <v>0.1699694704335997</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7565249985672722</v>
+        <v>1.391743457384692</v>
       </c>
       <c r="G12">
-        <v>0.0007834647377657226</v>
+        <v>0.002452167337596163</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2263364905488565</v>
+        <v>0.7792060197177122</v>
       </c>
       <c r="J12">
-        <v>0.04087481731464138</v>
+        <v>0.1592507790292181</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6098753385349909</v>
+        <v>0.4780148337391239</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.763557000978608</v>
+        <v>3.366053517487018</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.672785052166887</v>
+        <v>2.288831978229268</v>
       </c>
       <c r="C13">
-        <v>0.7982802493798431</v>
+        <v>0.2929678505733762</v>
       </c>
       <c r="D13">
-        <v>0.1153909752577107</v>
+        <v>0.1698835298786463</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7545747829231857</v>
+        <v>1.392054474378767</v>
       </c>
       <c r="G13">
-        <v>0.000783727230455529</v>
+        <v>0.002452322502923463</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2267636753864117</v>
+        <v>0.7798479523647757</v>
       </c>
       <c r="J13">
-        <v>0.0410245644071292</v>
+        <v>0.1593536173608587</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.606870652571402</v>
+        <v>0.4772519812200784</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.759282876827058</v>
+        <v>3.367185818250647</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.572789609566769</v>
+        <v>2.258491568918544</v>
       </c>
       <c r="C14">
-        <v>0.7856693360740792</v>
+        <v>0.2889182719755468</v>
       </c>
       <c r="D14">
-        <v>0.114011916986577</v>
+        <v>0.1696043278159038</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7482845747688032</v>
+        <v>1.393092239606531</v>
       </c>
       <c r="G14">
-        <v>0.0007845849756118131</v>
+        <v>0.002452830906399179</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.22819818868523</v>
+        <v>0.7819560590225194</v>
       </c>
       <c r="J14">
-        <v>0.04151631145625689</v>
+        <v>0.1596907847245923</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5970846225799846</v>
+        <v>0.4747673885606218</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.745543668148684</v>
+        <v>3.37094159572959</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.511585594723215</v>
+        <v>2.239905560191573</v>
       </c>
       <c r="C15">
-        <v>0.7779491576047803</v>
+        <v>0.2864365133674482</v>
       </c>
       <c r="D15">
-        <v>0.113169020758356</v>
+        <v>0.1694341306640794</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.744484731990724</v>
+        <v>1.393745933333406</v>
       </c>
       <c r="G15">
-        <v>0.0007851116871285573</v>
+        <v>0.002453144145275267</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2291083415819877</v>
+        <v>0.7832585695648966</v>
       </c>
       <c r="J15">
-        <v>0.04182010943119074</v>
+        <v>0.1598986844353716</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5911001541308991</v>
+        <v>0.4732479937657672</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.737279658742153</v>
+        <v>3.373290589373397</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.161509822458413</v>
+        <v>2.133373452131991</v>
       </c>
       <c r="C16">
-        <v>0.7337695165994944</v>
+        <v>0.2721952549577509</v>
       </c>
       <c r="D16">
-        <v>0.1083657155452613</v>
+        <v>0.1684714391970061</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7234989616303906</v>
+        <v>1.397768247623134</v>
       </c>
       <c r="G16">
-        <v>0.0007881507387105146</v>
+        <v>0.002454967242150585</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2347935803283292</v>
+        <v>0.7908947741517132</v>
       </c>
       <c r="J16">
-        <v>0.04360009689218458</v>
+        <v>0.1611111522921735</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.556948749442455</v>
+        <v>0.4645792841762244</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.692175477870506</v>
+        <v>3.387494054275578</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.947289159574268</v>
+        <v>2.068000718956569</v>
       </c>
       <c r="C17">
-        <v>0.7067159969872421</v>
+        <v>0.2634417370171889</v>
       </c>
       <c r="D17">
-        <v>0.1054422259540999</v>
+        <v>0.1678921789841681</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7113038883938358</v>
+        <v>1.400482176774581</v>
       </c>
       <c r="G17">
-        <v>0.0007900340629905519</v>
+        <v>0.002456110736954625</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2386866429493786</v>
+        <v>0.7957326938775999</v>
       </c>
       <c r="J17">
-        <v>0.04472622927938907</v>
+        <v>0.1618737755121087</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5361189642124771</v>
+        <v>0.4592956903405678</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.666441399307416</v>
+        <v>3.396869158290031</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.824254463954617</v>
+        <v>2.030393950979146</v>
       </c>
       <c r="C18">
-        <v>0.6911714472022368</v>
+        <v>0.2584008120596764</v>
       </c>
       <c r="D18">
-        <v>0.1037688836852624</v>
+        <v>0.1675631802227215</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7045292936119338</v>
+        <v>1.4021336405212</v>
       </c>
       <c r="G18">
-        <v>0.0007911244680098364</v>
+        <v>0.002456777684704327</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.241069548514588</v>
+        <v>0.7985716307850161</v>
       </c>
       <c r="J18">
-        <v>0.04538624771618149</v>
+        <v>0.162319331930191</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5241800889499189</v>
+        <v>0.4562694117735191</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.652322379190821</v>
+        <v>3.402504395305357</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.782626097804894</v>
+        <v>2.017659972326612</v>
       </c>
       <c r="C19">
-        <v>0.6859108633113067</v>
+        <v>0.2566929978945325</v>
       </c>
       <c r="D19">
-        <v>0.1032036901445537</v>
+        <v>0.1674525057530829</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7022757901898657</v>
+        <v>1.402708333021586</v>
       </c>
       <c r="G19">
-        <v>0.0007914949095700032</v>
+        <v>0.002457005090459951</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2419005588765977</v>
+        <v>0.7995425084036079</v>
       </c>
       <c r="J19">
-        <v>0.04561180659636133</v>
+        <v>0.1624713776322686</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5201447419955798</v>
+        <v>0.4552469546497093</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.64765648388925</v>
+        <v>3.404454087529331</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.970074334846402</v>
+        <v>2.074960407152332</v>
       </c>
       <c r="C20">
-        <v>0.7095941946813866</v>
+        <v>0.2643742009987022</v>
       </c>
       <c r="D20">
-        <v>0.1057525829968426</v>
+        <v>0.1679534103527658</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7125770502893403</v>
+        <v>1.400183908403186</v>
       </c>
       <c r="G20">
-        <v>0.0007898328425073446</v>
+        <v>0.00245598805444242</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2382572294661145</v>
+        <v>0.7952118614535095</v>
       </c>
       <c r="J20">
-        <v>0.04460507213729326</v>
+        <v>0.1617918772596205</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5383319400422266</v>
+        <v>0.4598568246183135</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.669109557403203</v>
+        <v>3.395846014710912</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.602150978106181</v>
+        <v>2.267403627015199</v>
       </c>
       <c r="C21">
-        <v>0.7893725431083851</v>
+        <v>0.290107997601865</v>
       </c>
       <c r="D21">
-        <v>0.1144165991343016</v>
+        <v>0.169686164979673</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7501210383991577</v>
+        <v>1.392783664522184</v>
       </c>
       <c r="G21">
-        <v>0.0007843327615842835</v>
+        <v>0.002452681195367833</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2277702473042069</v>
+        <v>0.7813345154124107</v>
       </c>
       <c r="J21">
-        <v>0.04137133240306312</v>
+        <v>0.159591463965671</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5999569677843652</v>
+        <v>0.4754966551400912</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.74954742987336</v>
+        <v>3.36982832998072</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.017260363309958</v>
+        <v>2.393105458725245</v>
       </c>
       <c r="C22">
-        <v>0.8417019182778915</v>
+        <v>0.3068697397294216</v>
       </c>
       <c r="D22">
-        <v>0.1201593985018405</v>
+        <v>0.1708554629339716</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7770075442357012</v>
+        <v>1.388754120236612</v>
       </c>
       <c r="G22">
-        <v>0.0007807976621916644</v>
+        <v>0.002450601800184853</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2223106822953511</v>
+        <v>0.7727675175353994</v>
       </c>
       <c r="J22">
-        <v>0.03937305251747425</v>
+        <v>0.1582149117439577</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6406621007538291</v>
+        <v>0.4858298229463998</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.808826909514408</v>
+        <v>3.354993035576001</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.795503644434859</v>
+        <v>2.326023315896464</v>
       </c>
       <c r="C23">
-        <v>0.8137529558160566</v>
+        <v>0.2979289823560975</v>
       </c>
       <c r="D23">
-        <v>0.1170866199786857</v>
+        <v>0.1702280322792546</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.762431854884511</v>
+        <v>1.390830870754314</v>
       </c>
       <c r="G23">
-        <v>0.000782679182120593</v>
+        <v>0.002451704146835154</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2250911800379818</v>
+        <v>0.7772938270656731</v>
       </c>
       <c r="J23">
-        <v>0.04042874998653723</v>
+        <v>0.1589439740343588</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6188948119263955</v>
+        <v>0.4803046746495596</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.776542512283982</v>
+        <v>3.362712201260308</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.959772776516616</v>
+        <v>2.071814003929035</v>
       </c>
       <c r="C24">
-        <v>0.7082929343619924</v>
+        <v>0.2639526602094122</v>
       </c>
       <c r="D24">
-        <v>0.1056122475767509</v>
+        <v>0.1679257151076925</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7120007194244948</v>
+        <v>1.400318471494799</v>
       </c>
       <c r="G24">
-        <v>0.0007899237904244468</v>
+        <v>0.002456043489524608</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2384509177304182</v>
+        <v>0.7954471505328655</v>
       </c>
       <c r="J24">
-        <v>0.04465980812759174</v>
+        <v>0.1618288812990469</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5373313407615257</v>
+        <v>0.4596031005051202</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.667901184829987</v>
+        <v>3.396307813679584</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.064955768707364</v>
+        <v>1.797383912054897</v>
       </c>
       <c r="C25">
-        <v>0.5951225222434857</v>
+        <v>0.2270704065113591</v>
       </c>
       <c r="D25">
-        <v>0.09354390609150443</v>
+        <v>0.1656021618207362</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.666659636296167</v>
+        <v>1.414010998755032</v>
       </c>
       <c r="G25">
-        <v>0.0007980144481283195</v>
+        <v>0.00246107769695477</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.258299392916328</v>
+        <v>0.8171798800682808</v>
       </c>
       <c r="J25">
-        <v>0.04969098647219639</v>
+        <v>0.1652051530357141</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4509244075754282</v>
+        <v>0.4377596443673184</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.576496686817478</v>
+        <v>3.441830266865168</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_73/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_73/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.595171257880907</v>
+        <v>3.409701384950665</v>
       </c>
       <c r="C2">
-        <v>0.1997189457370325</v>
+        <v>0.5120526833140104</v>
       </c>
       <c r="D2">
-        <v>0.1640302068917023</v>
+        <v>0.08488465954576441</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.427060993182451</v>
+        <v>0.6400154593753342</v>
       </c>
       <c r="G2">
-        <v>0.002465091533515773</v>
+        <v>0.0008042312236374345</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.835027060010944</v>
+        <v>0.2770383854429852</v>
       </c>
       <c r="J2">
-        <v>0.1679191627495049</v>
+        <v>0.05377041188943465</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4220987939883969</v>
+        <v>0.3883675922038066</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.483305048085299</v>
+        <v>1.528304220226318</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.458061052358687</v>
+        <v>2.966925207045165</v>
       </c>
       <c r="C3">
-        <v>0.1810641220763216</v>
+        <v>0.4558068864281495</v>
       </c>
       <c r="D3">
-        <v>0.163052254729827</v>
+        <v>0.07914008580497267</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.437753617176959</v>
+        <v>0.6256861987152575</v>
       </c>
       <c r="G3">
-        <v>0.002468004936192551</v>
+        <v>0.0008086165099389491</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8482709281717433</v>
+        <v>0.2920594914672954</v>
       </c>
       <c r="J3">
-        <v>0.1699010648156127</v>
+        <v>0.05675663501721573</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4117511432170602</v>
+        <v>0.3465065697659213</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.516362382676448</v>
+        <v>1.506171919020929</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.373851724902124</v>
+        <v>2.695418325912271</v>
       </c>
       <c r="C4">
-        <v>0.1695529483934308</v>
+        <v>0.4212651796233615</v>
       </c>
       <c r="D4">
-        <v>0.1624951693002075</v>
+        <v>0.07566875484774727</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.445229784162997</v>
+        <v>0.6185809278865975</v>
       </c>
       <c r="G4">
-        <v>0.002469889584334751</v>
+        <v>0.0008113970992871427</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8569684122360322</v>
+        <v>0.3023504129711583</v>
       </c>
       <c r="J4">
-        <v>0.1711883932998424</v>
+        <v>0.05869563809937439</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4055297817785544</v>
+        <v>0.3210284613974039</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.539096566826629</v>
+        <v>1.49735048081169</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.339532264368984</v>
+        <v>2.584830697046073</v>
       </c>
       <c r="C5">
-        <v>0.1648480123128877</v>
+        <v>0.4071833542750483</v>
       </c>
       <c r="D5">
-        <v>0.16227911237943</v>
+        <v>0.07426750164216145</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.44850530764149</v>
+        <v>0.616090760083857</v>
       </c>
       <c r="G5">
-        <v>0.002470681757301968</v>
+        <v>0.0008125527703077535</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8606548052805323</v>
+        <v>0.3068016615709084</v>
       </c>
       <c r="J5">
-        <v>0.1717307120527201</v>
+        <v>0.05951176266644431</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4030279691878604</v>
+        <v>0.3106972066885874</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.548973061694937</v>
+        <v>1.494894976713908</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.333833403282199</v>
+        <v>2.566469918006817</v>
       </c>
       <c r="C6">
-        <v>0.1640659222935028</v>
+        <v>0.4048446121916243</v>
       </c>
       <c r="D6">
-        <v>0.1622438997601918</v>
+        <v>0.07403561065789432</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.449063028890954</v>
+        <v>0.6157011701668367</v>
       </c>
       <c r="G6">
-        <v>0.002470814758287025</v>
+        <v>0.0008127460432432252</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8612755059535253</v>
+        <v>0.307556038067375</v>
       </c>
       <c r="J6">
-        <v>0.1718218343568552</v>
+        <v>0.05964883209857685</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.402614571340564</v>
+        <v>0.3089846600187798</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.550649998675851</v>
+        <v>1.494554366765939</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.373388891619754</v>
+        <v>2.693926732109048</v>
       </c>
       <c r="C7">
-        <v>0.1694895524206856</v>
+        <v>0.4210752959479578</v>
       </c>
       <c r="D7">
-        <v>0.1624922110355982</v>
+        <v>0.07564980393516407</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.445273032267643</v>
+        <v>0.6185457298616512</v>
       </c>
       <c r="G7">
-        <v>0.002469900170034108</v>
+        <v>0.0008114125931387926</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8570175530759379</v>
+        <v>0.3024094150345249</v>
       </c>
       <c r="J7">
-        <v>0.1711956354300241</v>
+        <v>0.05870654021919286</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4054959057633027</v>
+        <v>0.3208889295336377</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.539227287048561</v>
+        <v>1.497312828628338</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.547901806644745</v>
+        <v>3.256934507321716</v>
       </c>
       <c r="C8">
-        <v>0.1932987758278841</v>
+        <v>0.4926578846562677</v>
       </c>
       <c r="D8">
-        <v>0.1636840354335476</v>
+        <v>0.08289189810943753</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.430558691328805</v>
+        <v>0.6347107430893857</v>
       </c>
       <c r="G8">
-        <v>0.002466076233277835</v>
+        <v>0.0008057252694265336</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.83947604615609</v>
+        <v>0.2819892845521466</v>
       </c>
       <c r="J8">
-        <v>0.1685879111479522</v>
+        <v>0.05477783660757307</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4185036237979602</v>
+        <v>0.373884013254326</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.49419706683716</v>
+        <v>1.519646590141974</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.889852739295748</v>
+        <v>4.365683717024012</v>
       </c>
       <c r="C9">
-        <v>0.239524987628414</v>
+        <v>0.6331887523466548</v>
       </c>
       <c r="D9">
-        <v>0.1663633795384172</v>
+        <v>0.09757148269549276</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.408937147651827</v>
+        <v>0.680819005571685</v>
       </c>
       <c r="G9">
-        <v>0.002459334408473368</v>
+        <v>0.0007952501756804398</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8095721666738775</v>
+        <v>0.2509374751087172</v>
       </c>
       <c r="J9">
-        <v>0.1640324636751069</v>
+        <v>0.04793625121699474</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4450523290965265</v>
+        <v>0.4798471560784776</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.425258083846984</v>
+        <v>1.604123030733433</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.140832052283429</v>
+        <v>5.185979545551106</v>
       </c>
       <c r="C10">
-        <v>0.2731932537968476</v>
+        <v>0.7368588244867453</v>
       </c>
       <c r="D10">
-        <v>0.1685381015435254</v>
+        <v>0.1087004382231243</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.397470834325233</v>
+        <v>0.724923687735938</v>
       </c>
       <c r="G10">
-        <v>0.002454838011865277</v>
+        <v>0.0007879367952447846</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7903503664421905</v>
+        <v>0.2343692047343957</v>
       </c>
       <c r="J10">
-        <v>0.1610250686445207</v>
+        <v>0.04347328221944391</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4651838954137872</v>
+        <v>0.5593314317927565</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.386457225768538</v>
+        <v>1.695206468844077</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.254937450459977</v>
+        <v>5.561082834638569</v>
       </c>
       <c r="C11">
-        <v>0.2884437591832523</v>
+        <v>0.7841927470023791</v>
       </c>
       <c r="D11">
-        <v>0.1695717321124377</v>
+        <v>0.1138506223873961</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.393216176383319</v>
+        <v>0.7475547998195822</v>
       </c>
       <c r="G11">
-        <v>0.002452890698961648</v>
+        <v>0.0007846856203743786</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7822044726774173</v>
+        <v>0.2283703818806124</v>
       </c>
       <c r="J11">
-        <v>0.1597304599549201</v>
+        <v>0.04157425391485248</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4744766859455751</v>
+        <v>0.595939635671229</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.371387920683986</v>
+        <v>1.743954401251614</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.298134709530359</v>
+        <v>5.703465900227513</v>
       </c>
       <c r="C12">
-        <v>0.2942090779358466</v>
+        <v>0.8021489810090259</v>
       </c>
       <c r="D12">
-        <v>0.1699694704335997</v>
+        <v>0.1158145747696366</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.391743457384692</v>
+        <v>0.7565249985672722</v>
       </c>
       <c r="G12">
-        <v>0.002452167337596163</v>
+        <v>0.0007834647377957804</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7792060197177122</v>
+        <v>0.2263364905488494</v>
       </c>
       <c r="J12">
-        <v>0.1592507790292181</v>
+        <v>0.04087481731472309</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4780148337391239</v>
+        <v>0.6098753385350477</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.366053517487018</v>
+        <v>1.763557000978579</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.288831978229268</v>
+        <v>5.67278505216683</v>
       </c>
       <c r="C13">
-        <v>0.2929678505733762</v>
+        <v>0.7982802493798431</v>
       </c>
       <c r="D13">
-        <v>0.1698835298786463</v>
+        <v>0.1153909752577036</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.392054474378767</v>
+        <v>0.7545747829231573</v>
       </c>
       <c r="G13">
-        <v>0.002452322502923463</v>
+        <v>0.0007837272304556109</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7798479523647757</v>
+        <v>0.2267636753864259</v>
       </c>
       <c r="J13">
-        <v>0.1593536173608587</v>
+        <v>0.0410245644070697</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4772519812200784</v>
+        <v>0.6068706525714731</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.367185818250647</v>
+        <v>1.759282876826973</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.258491568918544</v>
+        <v>5.572789609566541</v>
       </c>
       <c r="C14">
-        <v>0.2889182719755468</v>
+        <v>0.7856693360738802</v>
       </c>
       <c r="D14">
-        <v>0.1696043278159038</v>
+        <v>0.1140119169866338</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.393092239606531</v>
+        <v>0.7482845747688316</v>
       </c>
       <c r="G14">
-        <v>0.002452830906399179</v>
+        <v>0.0007845849755820937</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7819560590225194</v>
+        <v>0.2281981886852371</v>
       </c>
       <c r="J14">
-        <v>0.1596907847245923</v>
+        <v>0.04151631145625245</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4747673885606218</v>
+        <v>0.5970846225799278</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.37094159572959</v>
+        <v>1.745543668148571</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.239905560191573</v>
+        <v>5.511585594723158</v>
       </c>
       <c r="C15">
-        <v>0.2864365133674482</v>
+        <v>0.7779491576047519</v>
       </c>
       <c r="D15">
-        <v>0.1694341306640794</v>
+        <v>0.1131690207584128</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.393745933333406</v>
+        <v>0.744484731990724</v>
       </c>
       <c r="G15">
-        <v>0.002453144145275267</v>
+        <v>0.0007851116871279298</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7832585695648966</v>
+        <v>0.2291083415819912</v>
       </c>
       <c r="J15">
-        <v>0.1598986844353716</v>
+        <v>0.04182010943121295</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4732479937657672</v>
+        <v>0.5911001541309133</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.373290589373397</v>
+        <v>1.737279658742239</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.133373452131991</v>
+        <v>5.161509822458186</v>
       </c>
       <c r="C16">
-        <v>0.2721952549577509</v>
+        <v>0.7337695165992386</v>
       </c>
       <c r="D16">
-        <v>0.1684714391970061</v>
+        <v>0.1083657155452613</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.397768247623134</v>
+        <v>0.7234989616303906</v>
       </c>
       <c r="G16">
-        <v>0.002454967242150585</v>
+        <v>0.0007881507386815642</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7908947741517132</v>
+        <v>0.2347935803283256</v>
       </c>
       <c r="J16">
-        <v>0.1611111522921735</v>
+        <v>0.04360009689218103</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4645792841762244</v>
+        <v>0.5569487494424266</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.387494054275578</v>
+        <v>1.692175477870478</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.068000718956569</v>
+        <v>4.947289159574609</v>
       </c>
       <c r="C17">
-        <v>0.2634417370171889</v>
+        <v>0.7067159969872137</v>
       </c>
       <c r="D17">
-        <v>0.1678921789841681</v>
+        <v>0.1054422259542136</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.400482176774581</v>
+        <v>0.7113038883938358</v>
       </c>
       <c r="G17">
-        <v>0.002456110736954625</v>
+        <v>0.0007900340629905701</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7957326938775999</v>
+        <v>0.2386866429493821</v>
       </c>
       <c r="J17">
-        <v>0.1618737755121087</v>
+        <v>0.04472622927935266</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4592956903405678</v>
+        <v>0.5361189642124629</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.396869158290031</v>
+        <v>1.666441399307416</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.030393950979146</v>
+        <v>4.824254463954844</v>
       </c>
       <c r="C18">
-        <v>0.2584008120596764</v>
+        <v>0.6911714472024642</v>
       </c>
       <c r="D18">
-        <v>0.1675631802227215</v>
+        <v>0.1037688836853121</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.4021336405212</v>
+        <v>0.704529293611948</v>
       </c>
       <c r="G18">
-        <v>0.002456777684704327</v>
+        <v>0.0007911244680382863</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7985716307850161</v>
+        <v>0.241069548514588</v>
       </c>
       <c r="J18">
-        <v>0.162319331930191</v>
+        <v>0.04538624771620459</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4562694117735191</v>
+        <v>0.5241800889499331</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.402504395305357</v>
+        <v>1.652322379190821</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.017659972326612</v>
+        <v>4.782626097805178</v>
       </c>
       <c r="C19">
-        <v>0.2566929978945325</v>
+        <v>0.6859108633110509</v>
       </c>
       <c r="D19">
-        <v>0.1674525057530829</v>
+        <v>0.1032036901446247</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.402708333021586</v>
+        <v>0.7022757901898657</v>
       </c>
       <c r="G19">
-        <v>0.002457005090459951</v>
+        <v>0.0007914949095413677</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7995425084036079</v>
+        <v>0.2419005588766012</v>
       </c>
       <c r="J19">
-        <v>0.1624713776322686</v>
+        <v>0.04561180659630537</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4552469546497093</v>
+        <v>0.5201447419956509</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.404454087529331</v>
+        <v>1.647656483889165</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.074960407152332</v>
+        <v>4.970074334846402</v>
       </c>
       <c r="C20">
-        <v>0.2643742009987022</v>
+        <v>0.7095941946813014</v>
       </c>
       <c r="D20">
-        <v>0.1679534103527658</v>
+        <v>0.1057525829969634</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.400183908403186</v>
+        <v>0.7125770502893118</v>
       </c>
       <c r="G20">
-        <v>0.00245598805444242</v>
+        <v>0.0007898328425894401</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7952118614535095</v>
+        <v>0.2382572294661109</v>
       </c>
       <c r="J20">
-        <v>0.1617918772596205</v>
+        <v>0.04460507213726572</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4598568246183135</v>
+        <v>0.5383319400422408</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.395846014710912</v>
+        <v>1.66910955740326</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.267403627015199</v>
+        <v>5.602150978106579</v>
       </c>
       <c r="C21">
-        <v>0.290107997601865</v>
+        <v>0.7893725431088399</v>
       </c>
       <c r="D21">
-        <v>0.169686164979673</v>
+        <v>0.114416599134465</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.392783664522184</v>
+        <v>0.7501210383991719</v>
       </c>
       <c r="G21">
-        <v>0.002452681195367833</v>
+        <v>0.0007843327616105974</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7813345154124107</v>
+        <v>0.2277702473042105</v>
       </c>
       <c r="J21">
-        <v>0.159591463965671</v>
+        <v>0.04137133240295832</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4754966551400912</v>
+        <v>0.599956967784351</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.36982832998072</v>
+        <v>1.749547429873388</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.393105458725245</v>
+        <v>6.017260363309788</v>
       </c>
       <c r="C22">
-        <v>0.3068697397294216</v>
+        <v>0.8417019182776073</v>
       </c>
       <c r="D22">
-        <v>0.1708554629339716</v>
+        <v>0.1201593985019684</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.388754120236612</v>
+        <v>0.777007544235687</v>
       </c>
       <c r="G22">
-        <v>0.002450601800184853</v>
+        <v>0.0007807976621667441</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7727675175353994</v>
+        <v>0.2223106822953511</v>
       </c>
       <c r="J22">
-        <v>0.1582149117439577</v>
+        <v>0.03937305251748491</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4858298229463998</v>
+        <v>0.6406621007539002</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.354993035576001</v>
+        <v>1.808826909514437</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.326023315896464</v>
+        <v>5.795503644434632</v>
       </c>
       <c r="C23">
-        <v>0.2979289823560975</v>
+        <v>0.8137529558158292</v>
       </c>
       <c r="D23">
-        <v>0.1702280322792546</v>
+        <v>0.1170866199785223</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.390830870754314</v>
+        <v>0.7624318548844968</v>
       </c>
       <c r="G23">
-        <v>0.002451704146835154</v>
+        <v>0.0007826791821213819</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7772938270656731</v>
+        <v>0.2250911800379782</v>
       </c>
       <c r="J23">
-        <v>0.1589439740343588</v>
+        <v>0.04042874998652035</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4803046746495596</v>
+        <v>0.6188948119264097</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.362712201260308</v>
+        <v>1.776542512283982</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.071814003929035</v>
+        <v>4.959772776516672</v>
       </c>
       <c r="C24">
-        <v>0.2639526602094122</v>
+        <v>0.708292934361765</v>
       </c>
       <c r="D24">
-        <v>0.1679257151076925</v>
+        <v>0.1056122475767438</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.400318471494799</v>
+        <v>0.7120007194244877</v>
       </c>
       <c r="G24">
-        <v>0.002456043489524608</v>
+        <v>0.0007899237904237101</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7954471505328655</v>
+        <v>0.2384509177304217</v>
       </c>
       <c r="J24">
-        <v>0.1618288812990469</v>
+        <v>0.0446598081275571</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4596031005051202</v>
+        <v>0.5373313407614546</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.396307813679584</v>
+        <v>1.667901184829987</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.797383912054897</v>
+        <v>4.06495576870725</v>
       </c>
       <c r="C25">
-        <v>0.2270704065113591</v>
+        <v>0.5951225222433152</v>
       </c>
       <c r="D25">
-        <v>0.1656021618207362</v>
+        <v>0.09354390609167496</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.414010998755032</v>
+        <v>0.6666596362961315</v>
       </c>
       <c r="G25">
-        <v>0.00246107769695477</v>
+        <v>0.0007980144481065315</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8171798800682808</v>
+        <v>0.2582993929163315</v>
       </c>
       <c r="J25">
-        <v>0.1652051530357141</v>
+        <v>0.04969098647224079</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4377596443673184</v>
+        <v>0.450924407575485</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.441830266865168</v>
+        <v>1.576496686817478</v>
       </c>
     </row>
   </sheetData>
